--- a/NRI_STLF_Data/LoadData/L_Manategh91.xlsx
+++ b/NRI_STLF_Data/LoadData/L_Manategh91.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\karami\Works\LoadData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="19035" windowHeight="10995"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -66,6 +71,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -113,7 +121,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,7 +156,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,7 +368,7 @@
   <dimension ref="A1:AE366"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A357" workbookViewId="0">
-      <selection activeCell="F366" sqref="F366:AE366"/>
+      <selection activeCell="F366" sqref="F366:AD366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35057,79 +35065,79 @@
         <v>6</v>
       </c>
       <c r="F366">
-        <v>19495.600000000002</v>
+        <v>18777.06278</v>
       </c>
       <c r="G366">
-        <v>18085.629895999999</v>
+        <v>17338.918239999999</v>
       </c>
       <c r="H366">
-        <v>17248.358022</v>
+        <v>16522.088529000001</v>
       </c>
       <c r="I366">
-        <v>16783.763081999998</v>
+        <v>15985.738619999996</v>
       </c>
       <c r="J366">
-        <v>16532.919203999998</v>
+        <v>15833.920249999997</v>
       </c>
       <c r="K366">
-        <v>16521.234487999998</v>
+        <v>15730.331310999998</v>
       </c>
       <c r="L366">
-        <v>16185.573857999998</v>
+        <v>15222.401346000001</v>
       </c>
       <c r="M366">
-        <v>16831.350484000002</v>
+        <v>15669.3</v>
       </c>
       <c r="N366">
-        <v>17995.517603</v>
+        <v>16925.700000000004</v>
       </c>
       <c r="O366">
-        <v>19093.400000000001</v>
+        <v>18201</v>
       </c>
       <c r="P366">
-        <v>19741.626633</v>
+        <v>19036.600000000002</v>
       </c>
       <c r="Q366">
-        <v>20068.155692</v>
+        <v>19193.53903</v>
       </c>
       <c r="R366">
-        <v>19902.915055999998</v>
+        <v>18973.642823999999</v>
       </c>
       <c r="S366">
-        <v>19442.048862000003</v>
+        <v>18583.559840000002</v>
       </c>
       <c r="T366">
-        <v>19181.789159999997</v>
+        <v>18023.026785000002</v>
       </c>
       <c r="U366">
-        <v>18954.754786000001</v>
+        <v>17209.567564999998</v>
       </c>
       <c r="V366">
-        <v>19006.794924000002</v>
+        <v>16883.025712000002</v>
       </c>
       <c r="W366">
-        <v>19426.488952</v>
+        <v>17241.712521000001</v>
       </c>
       <c r="X366">
-        <v>21657.968618000003</v>
+        <v>19377.226920000001</v>
       </c>
       <c r="Y366">
-        <v>22526.881057999999</v>
+        <v>20539.284535000003</v>
       </c>
       <c r="Z366">
-        <v>22322.345592000001</v>
+        <v>20317.028164999996</v>
       </c>
       <c r="AA366">
-        <v>21912.127596000002</v>
+        <v>19998.897594999999</v>
       </c>
       <c r="AB366">
-        <v>21273.002432000001</v>
+        <v>19471.068514999999</v>
       </c>
       <c r="AC366">
-        <v>20237.736431999998</v>
+        <v>18680.207728999998</v>
       </c>
       <c r="AD366">
-        <v>460427.98242999997</v>
+        <v>20493.499999999996</v>
       </c>
       <c r="AE366">
         <v>22708.499999999996</v>
